--- a/diabetes_data.xlsx
+++ b/diabetes_data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H769"/>
+  <dimension ref="A1:H771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J770" sqref="J770"/>
@@ -20422,6 +20422,86 @@
         <v>-50</v>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H770" t="n">
+        <v>-430</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H771" t="n">
+        <v>-423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/diabetes_data.xlsx
+++ b/diabetes_data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H771"/>
+  <dimension ref="A1:H778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J770" sqref="J770"/>
@@ -20502,6 +20502,272 @@
         <v>-423</v>
       </c>
     </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>0</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H772" t="n">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>0</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H773" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>0</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H774" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>0</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H775" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>0</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H776" t="n">
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>0</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H777" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>0</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H778" t="n">
+        <v>-174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
